--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>tech</t>
   </si>
@@ -53,25 +53,37 @@
     <t>output_comm</t>
   </si>
   <si>
+    <t>HH2_BIO_CM_NEW</t>
+  </si>
+  <si>
     <t>HH2_WE_ALK_DS_NEW</t>
   </si>
   <si>
-    <t>HH2_WE_SOEC_CL_NEW</t>
+    <t>HH2_WE_PEM_DS_NEW</t>
+  </si>
+  <si>
+    <t>HH2_NGA_CS_CCS_NEW</t>
+  </si>
+  <si>
+    <t>HH2_BIO_CM_CCS_NEW</t>
   </si>
   <si>
     <t>IMP_HH2_DMY_TECH</t>
   </si>
   <si>
+    <t>HH2_DT</t>
+  </si>
+  <si>
     <t>HH2_WE_DT</t>
   </si>
   <si>
+    <t>HH2_CT</t>
+  </si>
+  <si>
+    <t>HH2_CU</t>
+  </si>
+  <si>
     <t>HH2_WE_CU</t>
-  </si>
-  <si>
-    <t>HH2_CU</t>
-  </si>
-  <si>
-    <t>HH2_CT</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,22 +538,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-1.957194462431922E-07</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -564,19 +576,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08999999999960577</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G3">
-        <v>-5.324197341199505E-07</v>
+        <v>-6.601260126017315E-07</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -602,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -617,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.005560809726644364</v>
+        <v>-8.180146616802488E-07</v>
       </c>
       <c r="I4">
-        <v>3.798315985494385</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.372051376980827</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.078759681649827</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>90.78287075363244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -637,10 +649,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -655,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.542012463858854E-07</v>
+        <v>-2.636775873212822E-07</v>
       </c>
       <c r="I5">
-        <v>0.04539521029943389</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3419947827662372</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3419945886001197</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>11.05952022582109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -675,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -693,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43.63124148960065</v>
+        <v>-1.06144144118317E-07</v>
       </c>
       <c r="I6">
-        <v>47.15820218319972</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>164.0070127965779</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>194.2111624457846</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>786.2592561312222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -713,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -728,22 +740,174 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.09000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.09000000000000001</v>
+        <v>0.003390334572490707</v>
       </c>
       <c r="I7">
-        <v>0.1538654227097795</v>
+        <v>5.216075219922117</v>
       </c>
       <c r="J7">
-        <v>0.1538654227097795</v>
+        <v>38.25535964165993</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>24.35947954671501</v>
       </c>
       <c r="L7">
-        <v>200.6590324813513</v>
+        <v>547.4581220565871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.698217314395992E-07</v>
+      </c>
+      <c r="I8">
+        <v>-1.176117611759176E-07</v>
+      </c>
+      <c r="J8">
+        <v>4.660331529275172</v>
+      </c>
+      <c r="K8">
+        <v>33.69273271381716</v>
+      </c>
+      <c r="L8">
+        <v>123.8301267535134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.176117611759176E-07</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>168.8529092451139</v>
+      </c>
+      <c r="I10">
+        <v>435.4813255160655</v>
+      </c>
+      <c r="J10">
+        <v>745.8684661493655</v>
+      </c>
+      <c r="K10">
+        <v>879.9322074912982</v>
+      </c>
+      <c r="L10">
+        <v>1247.295208330303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.09000066012601261</v>
+      </c>
+      <c r="H11">
+        <v>0.0900008180146617</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
